--- a/fuentes/contenidos/grado11/guion02/SolicitudGraficaLE_11_02_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGraficaLE_11_02_CO.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="212">
   <si>
     <t>Fecha:</t>
   </si>
@@ -644,6 +644,30 @@
   </si>
   <si>
     <t>PARTICIPANTES EN UN DEBATE.</t>
+  </si>
+  <si>
+    <t>shutter: 256761841</t>
+  </si>
+  <si>
+    <t>Fotografía tipo publicidad de zapatos.</t>
+  </si>
+  <si>
+    <t>shutter: 376588693</t>
+  </si>
+  <si>
+    <t>Persona junto al mar con tableta.</t>
+  </si>
+  <si>
+    <t>Shutter: 293501705</t>
+  </si>
+  <si>
+    <t>Dos muchachas viendo algo en una tableta.</t>
+  </si>
+  <si>
+    <t>Shutter: 190351328</t>
+  </si>
+  <si>
+    <t>Grupo de jóvenes trabajando con computadores en un parque.</t>
   </si>
 </sst>
 </file>
@@ -2519,9 +2543,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3066,32 +3090,40 @@
     <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="62"/>
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>204</v>
+      </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F16" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>LE_11_02_CO_IMG07_small</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_11_02_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="67"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
@@ -3101,102 +3133,126 @@
     <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="62"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>206</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F17" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>LE_11_02_CO_IMG08_small</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_11_02_CO_IMG08_zoom</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="66"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>207</v>
+      </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="62"/>
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>208</v>
+      </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F18" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>LE_11_02_CO_IMG09_small</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_11_02_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="66"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>209</v>
+      </c>
       <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="62"/>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>210</v>
+      </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F19" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>LE_11_02_CO_IMG10_small</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_11_02_CO_IMG10_zoom</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="67"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>211</v>
+      </c>
       <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
